--- a/i_codebooks/D4_monthly_prevalence_vaccination.xlsx
+++ b/i_codebooks/D4_monthly_prevalence_vaccination.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>medatata_name</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>cohort_label</t>
-  </si>
-  <si>
-    <t>it may be a calendar month (for seasonal recruitment), or a age month (for age cohorts)</t>
   </si>
   <si>
     <t>MCV1 = measles-containing vaccine, dose 1
@@ -178,9 +175,6 @@
     <t>number of persons in the cohort</t>
   </si>
   <si>
-    <t>depends on type_of_cohort, for birth cohorts the label is the year of birth, for seasonal cohorts it is the year where the season is located</t>
-  </si>
-  <si>
     <t>indicator cohort_type cohort_label month</t>
   </si>
   <si>
@@ -196,22 +190,66 @@
     <t>number of persons in the follow up at current month and that have received a pertinent vaccine at current month</t>
   </si>
   <si>
+    <t>Vacc_observed_month/FU_proportion_month</t>
+  </si>
+  <si>
+    <t>Vacc_IPW_1 + Vacc_IPW_2 + …. + Vacc_IPW_month</t>
+  </si>
+  <si>
+    <t>estimated number of persons in the cohort who have the vaccine at the current month</t>
+  </si>
+  <si>
+    <t>estimated number of persons in the cohort who have the vaccine before or during the current month</t>
+  </si>
+  <si>
+    <t>Vacc_observed_before_month</t>
+  </si>
+  <si>
+    <t>number of persons in the follow up at current month and that have received a pertinent vaccine at current month or before</t>
+  </si>
+  <si>
+    <t>PP_month</t>
+  </si>
+  <si>
+    <t>depends on type_of_cohort, for birth cohorts and for adolescents the label is the year of birth, for seasonal cohorts it is the year where the season is located</t>
+  </si>
+  <si>
+    <t>ageband</t>
+  </si>
+  <si>
+    <t>only for covid</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
     <t>birth12 = cohort recruited at birth, followed for 12 months
+birth15 = cohort recruited at birth, followed for 15 months
 birth24 = cohort recruited at birth, followed for 24 months
 adolescence  = cohort recruited at age 9 and followed up until age 16 
-seasonal = cohort recruited at the beginning of a season and followed until the end of the season</t>
-  </si>
-  <si>
-    <t>Vacc_observed_month/FU_proportion_month</t>
-  </si>
-  <si>
-    <t>Vacc_IPW_1 + Vacc_IPW_2 + …. + Vacc_IPW_month</t>
-  </si>
-  <si>
-    <t>estimated number of persons in the cohort who have the vaccine at the current month</t>
-  </si>
-  <si>
-    <t>estimated number of persons in the cohort who have the vaccine before or during the current month</t>
+seasonal = cohort recruited at the beginning of a season and followed until the end of the season
+covid_vacc _ starting with december 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 years
+1 years
+2-4 years
+5-11
+12-17
+18-29
+30-34
+…
+85+
+</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>1, 2, …</t>
+  </si>
+  <si>
+    <t>month since start of fup in the cohort</t>
   </si>
 </sst>
 </file>
@@ -820,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
@@ -828,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
@@ -844,13 +882,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -904,13 +942,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="280.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -918,80 +956,116 @@
         <v>38</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="156" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
       <c r="B9" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1084,6 +1158,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1328,7 +1411,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
@@ -1340,16 +1423,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41568E44-26BF-4A8E-860D-94FA11416FA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1368,7 +1450,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1383,12 +1465,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/i_codebooks/D4_monthly_prevalence_vaccination.xlsx
+++ b/i_codebooks/D4_monthly_prevalence_vaccination.xlsx
@@ -220,9 +220,6 @@
     <t>only for covid</t>
   </si>
   <si>
-    <t>dose</t>
-  </si>
-  <si>
     <t>birth12 = cohort recruited at birth, followed for 12 months
 birth15 = cohort recruited at birth, followed for 15 months
 birth24 = cohort recruited at birth, followed for 24 months
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>month since start of fup in the cohort</t>
+  </si>
+  <si>
+    <t>(Vacc_observed_before_month + Vacc_observed_month)/NFUP_month</t>
   </si>
 </sst>
 </file>
@@ -882,13 +882,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -956,7 +956,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
@@ -972,13 +972,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="156" x14ac:dyDescent="0.3">
@@ -989,83 +989,80 @@
         <v>57</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1158,15 +1155,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1411,6 +1399,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1424,14 +1421,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41568E44-26BF-4A8E-860D-94FA11416FA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1446,6 +1435,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
